--- a/biology/Histoire de la zoologie et de la botanique/Otto_Jaekel/Otto_Jaekel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Otto_Jaekel/Otto_Jaekel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Max Johannes Jaekel (né le 21 février 1863 à Neusalz, arrondissement de Freystadt-en-Basse-Silésie - mort le 6 mars 1929 à Beijing) est un géologue et paléontologue allemand.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jaekel a étudié la géologie et la paléontologie à Legnica. Après sa graduation en 1883, il déménage à Breslau, où il étudie sous la direction de Ferdinand von Roemer jusqu'en 1885. Le 21 avril 1883, il renonce au Corps Lusatia Breslau (de). Il obtient son PhD de Karl Alfred von Zittel à Munich l'année suivante.
 Entre 1887 et 1889, Jaekel assiste Ernst Wilhelm Benecke (de) au Geologisch-Paläontologisches Institut de Strasbourg. Au début des années 1890, il travaille à l'université Humboldt de Berlin et au Geologisch-Paläontologisches Museum (de) (1894).
-En 1903, Jaekel transfère à l'université de Vienne. Entre 1906 et 1928, il est professeur à l'université de Greifswald[1]. Il y fondera la  Société allemande de paléontologie (de) en 1912. Le Corps Guestfalia Greifswald lui décerne le ruban du Corps le 22 juillet 1922[2].
-Après sa retraite de Greifswald, Otto Jaekel accepte un poste à l'université Sun Yat-sen de Canton (Chine) en 1928. Il meurt peu de temps après d'une courte et fulgurante maladie à l'hôpital allemand de Beijing[3]. 
+En 1903, Jaekel transfère à l'université de Vienne. Entre 1906 et 1928, il est professeur à l'université de Greifswald. Il y fondera la  Société allemande de paléontologie (de) en 1912. Le Corps Guestfalia Greifswald lui décerne le ruban du Corps le 22 juillet 1922.
+Après sa retraite de Greifswald, Otto Jaekel accepte un poste à l'université Sun Yat-sen de Canton (Chine) en 1928. Il meurt peu de temps après d'une courte et fulgurante maladie à l'hôpital allemand de Beijing. 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stammesgeschichte der Pelmatozoen. Berlin, Springer, 1899
 Erster Band. Thecoidea und Cystoidea (1899)
